--- a/data/japan_costs/conventional_and_ccs.xlsx
+++ b/data/japan_costs/conventional_and_ccs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alley cat\Documents\GitHub\i2cner\data\japan_costs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F3DBCF-9963-4940-9CF5-B4D54FB8F5D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC334F5-D970-4AC8-97FE-27B4E57ED759}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="636" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{558254C2-F576-4D72-B799-A1AA36A7D720}"/>
+    <workbookView xWindow="2265" yWindow="2265" windowWidth="21600" windowHeight="11325" xr2:uid="{558254C2-F576-4D72-B799-A1AA36A7D720}"/>
   </bookViews>
   <sheets>
     <sheet name="Coal" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>https://atb.nrel.gov/electricity/2017/index.html?t=cc&amp;s=cx</t>
   </si>
@@ -124,12 +124,21 @@
   <si>
     <t>Adv nuclear</t>
   </si>
+  <si>
+    <t>USD/kW</t>
+  </si>
+  <si>
+    <t>$/MWh</t>
+  </si>
+  <si>
+    <t>$/kW/yr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +159,14 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,15 +185,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,25 +511,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF3ED00-888E-4625-A446-C3C3AD8C7F07}">
   <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -522,11 +550,11 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -537,7 +565,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -550,16 +578,16 @@
       <c r="E5">
         <v>83.75</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D6">
         <v>3.61</v>
@@ -568,7 +596,7 @@
         <v>11.33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -582,7 +610,7 @@
         <v>34.43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -590,10 +618,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -602,8 +630,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{52218ACB-1BD5-4B7A-9E99-4319E5EF28EC}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{B770EB00-EE02-4407-8BB7-8B9E8BE93A61}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -611,21 +643,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4094D634-71E1-4EA4-8ACA-A538ECEDE0A2}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -633,7 +665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -647,7 +679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
